--- a/index_si_moscow_stpetersburg_sevastopol.xlsx
+++ b/index_si_moscow_stpetersburg_sevastopol.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="83">
   <si>
     <t>state</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>2020-05-07</t>
+  </si>
+  <si>
+    <t>2020-05-08</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
   </si>
   <si>
     <t>Севастополь</t>
@@ -633,7 +639,7 @@
   <sheetPr>
     <tabColor rgb="FFEBA00"/>
   </sheetPr>
-  <dimension ref="A1:C226"/>
+  <dimension ref="A1:C232"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -1478,54 +1484,54 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
         <v>79</v>
       </c>
-      <c r="B77" t="s">
-        <v>4</v>
-      </c>
       <c r="C77">
-        <v>3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C78">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C79">
-        <v>1.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C80">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C81">
         <v>1.6</v>
@@ -1533,87 +1539,87 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C82">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C83">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C85">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C86">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C87">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C88">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C89">
         <v>1.4</v>
@@ -1621,318 +1627,318 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C90">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C91">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B92" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C92">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C93">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C94">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C95">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C96">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B97" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C97">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B98" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C98">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B99" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C99">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B100" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C100">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C101">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C102">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B103" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C103">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B104" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C104">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B105" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C105">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C106">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B107" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B108" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C108">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B109" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C109">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B111" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C111">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B112" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C112">
-        <v>3.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B113" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C113">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B114" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C114">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B115" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C115">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C116">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B117" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C117">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B118" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C118">
         <v>3.9</v>
@@ -1940,175 +1946,175 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B119" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C119">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B120" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C120">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B121" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C121">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B122" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C122">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B123" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C123">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B124" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C124">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B125" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C125">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C126">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B127" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C127">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B128" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C128">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B129" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C129">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B130" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C130">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B131" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C131">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B132" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C132">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B133" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C133">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B134" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C134">
         <v>3.5</v>
@@ -2116,32 +2122,32 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B135" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C135">
-        <v>3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B136" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C136">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B137" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C137">
         <v>3</v>
@@ -2149,120 +2155,120 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B138" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C138">
-        <v>2.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B139" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C139">
-        <v>3.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B140" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C140">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B141" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C141">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B142" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C142">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B143" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C143">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B144" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C144">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B145" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C145">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B146" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C146">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B147" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C147">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B148" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C148">
         <v>3.3</v>
@@ -2270,219 +2276,219 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B149" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C149">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B150" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C150">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B151" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C151">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B152" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="C152">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C153">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="C154">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>81</v>
+      </c>
+      <c r="B155" t="s">
         <v>80</v>
       </c>
-      <c r="B155" t="s">
-        <v>7</v>
-      </c>
       <c r="C155">
-        <v>0.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C156">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B157" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C157">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C159">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C160">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B161" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C161">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B162" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C162">
-        <v>0.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B163" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C163">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B164" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C164">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B165" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B166" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C166">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B167" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C167">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B168" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C168">
         <v>0.4</v>
@@ -2490,384 +2496,384 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B169" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C169">
-        <v>0.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B170" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C170">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B171" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C171">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B172" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C172">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B173" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C173">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B174" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C174">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B175" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C175">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B176" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C176">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B177" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C177">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B178" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C178">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B179" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C179">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B180" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C180">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B181" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B182" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C182">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B183" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B184" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C184">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B185" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C185">
-        <v>1.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B186" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C186">
-        <v>3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B187" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C187">
-        <v>3.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B188" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C188">
-        <v>3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B189" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C189">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B190" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C190">
-        <v>3.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B191" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C191">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B192" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C192">
-        <v>3.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B193" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C193">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B194" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C194">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B195" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C195">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B196" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C196">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B197" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C197">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B198" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C198">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B199" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C199">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B200" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C200">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B201" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C201">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B202" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C202">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B203" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C203">
         <v>2.7</v>
@@ -2875,32 +2881,32 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B204" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C204">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B205" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C205">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B206" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C206">
         <v>2.7</v>
@@ -2908,32 +2914,32 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B207" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C207">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B208" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C208">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B209" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C209">
         <v>2.7</v>
@@ -2941,76 +2947,76 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B210" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C210">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B211" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C211">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B212" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C212">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B213" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C213">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B214" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C214">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B215" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C215">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B216" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C216">
         <v>2.5</v>
@@ -3018,112 +3024,178 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B217" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C217">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B218" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C218">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B219" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C219">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B220" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C220">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B221" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C221">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B222" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C222">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B223" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C223">
-        <v>3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B224" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C224">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B225" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C225">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>82</v>
+      </c>
+      <c r="B226" t="s">
+        <v>74</v>
+      </c>
+      <c r="C226">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>82</v>
+      </c>
+      <c r="B227" t="s">
+        <v>75</v>
+      </c>
+      <c r="C227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>82</v>
+      </c>
+      <c r="B228" t="s">
+        <v>76</v>
+      </c>
+      <c r="C228">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>82</v>
+      </c>
+      <c r="B229" t="s">
+        <v>77</v>
+      </c>
+      <c r="C229">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>82</v>
+      </c>
+      <c r="B230" t="s">
+        <v>78</v>
+      </c>
+      <c r="C230">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>82</v>
+      </c>
+      <c r="B231" t="s">
+        <v>79</v>
+      </c>
+      <c r="C231">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>82</v>
+      </c>
+      <c r="B232" t="s">
         <v>80</v>
       </c>
-      <c r="B226" t="s">
-        <v>78</v>
-      </c>
-      <c r="C226">
-        <v>2.3</v>
+      <c r="C232">
+        <v>3.1</v>
       </c>
     </row>
   </sheetData>

--- a/index_si_moscow_stpetersburg_sevastopol.xlsx
+++ b/index_si_moscow_stpetersburg_sevastopol.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="85">
   <si>
     <t>state</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>2020-05-10</t>
+  </si>
+  <si>
+    <t>2020-05-11</t>
   </si>
   <si>
     <t>Севастополь</t>
@@ -639,7 +645,7 @@
   <sheetPr>
     <tabColor rgb="FFEBA00"/>
   </sheetPr>
-  <dimension ref="A1:C232"/>
+  <dimension ref="A1:C238"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -1506,54 +1512,54 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
         <v>81</v>
       </c>
-      <c r="B79" t="s">
-        <v>4</v>
-      </c>
       <c r="C79">
-        <v>3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="C80">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C81">
-        <v>1.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C82">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C83">
         <v>1.6</v>
@@ -1561,87 +1567,87 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C84">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C85">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C87">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C88">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C89">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C90">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C91">
         <v>1.4</v>
@@ -1649,318 +1655,318 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B92" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C92">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C93">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B94" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C94">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B95" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C95">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B96" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C96">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C97">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C98">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C99">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B100" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C100">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B101" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C101">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B102" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C102">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B103" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C103">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B104" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C104">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B105" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C105">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B106" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C106">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B107" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C107">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C108">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B110" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C110">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B111" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C111">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B112" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B113" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C113">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B114" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C114">
-        <v>3.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B115" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C115">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B116" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C116">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B117" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C117">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C118">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B119" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C119">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B120" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C120">
         <v>3.9</v>
@@ -1968,175 +1974,175 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B121" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C121">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B122" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C122">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B123" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C123">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B124" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C124">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B125" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C125">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B126" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C126">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B127" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C127">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B128" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C128">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B129" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C129">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B130" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C130">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B131" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C131">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B132" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C132">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B133" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C133">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B134" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C134">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B135" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C135">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B136" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C136">
         <v>3.5</v>
@@ -2144,32 +2150,32 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B137" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C137">
-        <v>3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B138" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B139" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C139">
         <v>3</v>
@@ -2177,120 +2183,120 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B140" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C140">
-        <v>2.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B141" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C141">
-        <v>3.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B142" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C142">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B143" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C143">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B144" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C144">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B145" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C145">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B146" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C146">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B147" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C147">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B148" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C148">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B149" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C149">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B150" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C150">
         <v>3.3</v>
@@ -2298,241 +2304,241 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B151" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C151">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B152" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C152">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B153" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C153">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B154" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C154">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B155" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C155">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B156" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C156">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C157">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C158">
-        <v>0.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>83</v>
+      </c>
+      <c r="B159" t="s">
         <v>82</v>
       </c>
-      <c r="B159" t="s">
-        <v>7</v>
-      </c>
       <c r="C159">
-        <v>0.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C160">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B161" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C161">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B162" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B163" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C163">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B164" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C164">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B165" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C165">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B166" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C166">
-        <v>0.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B167" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C167">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B168" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C168">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B169" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B170" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C170">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B171" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C171">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B172" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C172">
         <v>0.4</v>
@@ -2540,384 +2546,384 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B173" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C173">
-        <v>0.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B174" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C174">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B175" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C175">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B176" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C176">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B177" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C177">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B178" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C178">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B179" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C179">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B180" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C180">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B181" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C181">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B182" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C182">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B183" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C183">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B184" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C184">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B185" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B186" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C186">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B187" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B188" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C188">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B189" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C189">
-        <v>1.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B190" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C190">
-        <v>3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B191" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C191">
-        <v>3.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B192" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C192">
-        <v>3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B193" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C193">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B194" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C194">
-        <v>3.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B195" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C195">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B196" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C196">
-        <v>3.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B197" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C197">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B198" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C198">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B199" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C199">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B200" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C200">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B201" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C201">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B202" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C202">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B203" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C203">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B204" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C204">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B205" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C205">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B206" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C206">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B207" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C207">
         <v>2.7</v>
@@ -2925,32 +2931,32 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B208" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C208">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B209" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C209">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B210" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C210">
         <v>2.7</v>
@@ -2958,32 +2964,32 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B211" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C211">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B212" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C212">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B213" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C213">
         <v>2.7</v>
@@ -2991,76 +2997,76 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B214" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C214">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B215" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C215">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B216" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C216">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B217" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C217">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B218" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C218">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B219" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C219">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B220" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C220">
         <v>2.5</v>
@@ -3068,134 +3074,200 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B221" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C221">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B222" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C222">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B223" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C223">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B224" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C224">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B225" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C225">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B226" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C226">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B227" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C227">
-        <v>3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B228" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C228">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B229" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C229">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B230" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C230">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B231" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C231">
-        <v>2.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>84</v>
+      </c>
+      <c r="B232" t="s">
+        <v>76</v>
+      </c>
+      <c r="C232">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>84</v>
+      </c>
+      <c r="B233" t="s">
+        <v>77</v>
+      </c>
+      <c r="C233">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>84</v>
+      </c>
+      <c r="B234" t="s">
+        <v>78</v>
+      </c>
+      <c r="C234">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>84</v>
+      </c>
+      <c r="B235" t="s">
+        <v>79</v>
+      </c>
+      <c r="C235">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>84</v>
+      </c>
+      <c r="B236" t="s">
+        <v>80</v>
+      </c>
+      <c r="C236">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>84</v>
+      </c>
+      <c r="B237" t="s">
+        <v>81</v>
+      </c>
+      <c r="C237">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>84</v>
+      </c>
+      <c r="B238" t="s">
         <v>82</v>
       </c>
-      <c r="B232" t="s">
-        <v>80</v>
-      </c>
-      <c r="C232">
-        <v>3.1</v>
+      <c r="C238">
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>

--- a/index_si_moscow_stpetersburg_sevastopol.xlsx
+++ b/index_si_moscow_stpetersburg_sevastopol.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA787E66-C21E-4EA9-80CE-7D85C91B25C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C101EEA-08BB-43AA-A759-76A5C2004AAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="366" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart data" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="6">
   <si>
     <t>state</t>
   </si>
@@ -413,19 +413,17 @@
   <sheetPr>
     <tabColor rgb="FFFEBA00"/>
   </sheetPr>
-  <dimension ref="A1:C265"/>
+  <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -447,7 +445,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -458,7 +456,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -469,7 +467,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -480,7 +478,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -491,7 +489,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -502,7 +500,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -513,7 +511,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -524,7 +522,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -535,7 +533,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -546,7 +544,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -557,7 +555,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -568,7 +566,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -579,7 +577,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -590,7 +588,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -601,7 +599,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -612,7 +610,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -623,7 +621,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -634,7 +632,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -645,7 +643,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -656,7 +654,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -667,7 +665,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -678,7 +676,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -689,7 +687,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -700,7 +698,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -711,7 +709,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -722,7 +720,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -733,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -744,7 +742,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -755,7 +753,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -766,7 +764,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -777,7 +775,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -788,7 +786,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -799,7 +797,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -810,7 +808,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -821,7 +819,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -832,7 +830,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -843,7 +841,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -854,7 +852,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -865,7 +863,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -876,7 +874,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -887,7 +885,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -898,7 +896,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -909,7 +907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -920,7 +918,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -931,7 +929,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -942,7 +940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -953,7 +951,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -964,7 +962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -975,7 +973,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -986,7 +984,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -997,7 +995,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -1008,7 +1006,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -1019,7 +1017,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -1030,7 +1028,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -1041,7 +1039,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -1052,7 +1050,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -1063,7 +1061,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -1074,7 +1072,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -1085,7 +1083,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -1096,7 +1094,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -1107,7 +1105,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -1118,7 +1116,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -1129,7 +1127,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -1140,7 +1138,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -1151,7 +1149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -1162,7 +1160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -1173,7 +1171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -1184,7 +1182,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -1195,7 +1193,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -1206,7 +1204,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -1217,7 +1215,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -1228,7 +1226,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -1239,7 +1237,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -1250,7 +1248,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -1261,7 +1259,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -1272,7 +1270,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -1283,7 +1281,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -1294,7 +1292,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -1305,7 +1303,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -1316,7 +1314,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -1327,7 +1325,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -1338,7 +1336,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -1349,7 +1347,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -1360,7 +1358,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -1371,7 +1369,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -1382,7 +1380,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -1393,7 +1391,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -1404,1940 +1402,2105 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B90" s="1">
+        <v>43972</v>
+      </c>
+      <c r="C90">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="1">
+        <v>43973</v>
+      </c>
+      <c r="C91">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="1">
+        <v>43974</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="1">
+        <v>43975</v>
+      </c>
+      <c r="C93">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="1">
+        <v>43976</v>
+      </c>
+      <c r="C94">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="1">
         <v>43884</v>
       </c>
-      <c r="C90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" t="s">
-        <v>4</v>
-      </c>
-      <c r="B91" s="1">
+      <c r="C95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="1">
         <v>43885</v>
       </c>
-      <c r="C91">
+      <c r="C96">
         <v>3.4</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" t="s">
-        <v>4</v>
-      </c>
-      <c r="B92" s="1">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="1">
         <v>43886</v>
       </c>
-      <c r="C92">
+      <c r="C97">
         <v>1.6</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" t="s">
-        <v>4</v>
-      </c>
-      <c r="B93" s="1">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="1">
         <v>43887</v>
       </c>
-      <c r="C93">
+      <c r="C98">
         <v>1.6</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" t="s">
-        <v>4</v>
-      </c>
-      <c r="B94" s="1">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="1">
         <v>43888</v>
       </c>
-      <c r="C94">
+      <c r="C99">
         <v>1.6</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" t="s">
-        <v>4</v>
-      </c>
-      <c r="B95" s="1">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="1">
         <v>43889</v>
       </c>
-      <c r="C95">
+      <c r="C100">
         <v>1.7</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" t="s">
-        <v>4</v>
-      </c>
-      <c r="B96" s="1">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="1">
         <v>43890</v>
       </c>
-      <c r="C96">
+      <c r="C101">
         <v>2.6</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" t="s">
-        <v>4</v>
-      </c>
-      <c r="B97" s="1">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="1">
         <v>43891</v>
       </c>
-      <c r="C97">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" t="s">
-        <v>4</v>
-      </c>
-      <c r="B98" s="1">
+      <c r="C102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="1">
         <v>43892</v>
       </c>
-      <c r="C98">
+      <c r="C103">
         <v>1.7</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" t="s">
-        <v>4</v>
-      </c>
-      <c r="B99" s="1">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="1">
         <v>43893</v>
       </c>
-      <c r="C99">
+      <c r="C104">
         <v>1.5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" t="s">
-        <v>4</v>
-      </c>
-      <c r="B100" s="1">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="1">
         <v>43894</v>
       </c>
-      <c r="C100">
+      <c r="C105">
         <v>1.4</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" t="s">
-        <v>4</v>
-      </c>
-      <c r="B101" s="1">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="1">
         <v>43895</v>
       </c>
-      <c r="C101">
+      <c r="C106">
         <v>1.4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" t="s">
-        <v>4</v>
-      </c>
-      <c r="B102" s="1">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="1">
         <v>43896</v>
       </c>
-      <c r="C102">
+      <c r="C107">
         <v>1.4</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" t="s">
-        <v>4</v>
-      </c>
-      <c r="B103" s="1">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="1">
         <v>43897</v>
       </c>
-      <c r="C103">
+      <c r="C108">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" t="s">
-        <v>4</v>
-      </c>
-      <c r="B104" s="1">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="1">
         <v>43898</v>
       </c>
-      <c r="C104">
+      <c r="C109">
         <v>2.6</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" t="s">
-        <v>4</v>
-      </c>
-      <c r="B105" s="1">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="1">
         <v>43899</v>
       </c>
-      <c r="C105">
+      <c r="C110">
         <v>2.9</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" t="s">
-        <v>4</v>
-      </c>
-      <c r="B106" s="1">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="1">
         <v>43900</v>
       </c>
-      <c r="C106">
+      <c r="C111">
         <v>1.5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" t="s">
-        <v>4</v>
-      </c>
-      <c r="B107" s="1">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="1">
         <v>43901</v>
       </c>
-      <c r="C107">
+      <c r="C112">
         <v>1.5</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" t="s">
-        <v>4</v>
-      </c>
-      <c r="B108" s="1">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="1">
         <v>43902</v>
       </c>
-      <c r="C108">
+      <c r="C113">
         <v>1.4</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" t="s">
-        <v>4</v>
-      </c>
-      <c r="B109" s="1">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="1">
         <v>43903</v>
       </c>
-      <c r="C109">
+      <c r="C114">
         <v>1.4</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" t="s">
-        <v>4</v>
-      </c>
-      <c r="B110" s="1">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="1">
         <v>43904</v>
       </c>
-      <c r="C110">
+      <c r="C115">
         <v>2.5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" t="s">
-        <v>4</v>
-      </c>
-      <c r="B111" s="1">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="1">
         <v>43905</v>
       </c>
-      <c r="C111">
+      <c r="C116">
         <v>3.3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" t="s">
-        <v>4</v>
-      </c>
-      <c r="B112" s="1">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="1">
         <v>43906</v>
       </c>
-      <c r="C112">
+      <c r="C117">
         <v>1.6</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" t="s">
-        <v>4</v>
-      </c>
-      <c r="B113" s="1">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="1">
         <v>43907</v>
       </c>
-      <c r="C113">
+      <c r="C118">
         <v>1.5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" t="s">
-        <v>4</v>
-      </c>
-      <c r="B114" s="1">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" s="1">
         <v>43908</v>
       </c>
-      <c r="C114">
+      <c r="C119">
         <v>2.5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" t="s">
-        <v>4</v>
-      </c>
-      <c r="B115" s="1">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" s="1">
         <v>43909</v>
       </c>
-      <c r="C115">
+      <c r="C120">
         <v>1.9</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" t="s">
-        <v>4</v>
-      </c>
-      <c r="B116" s="1">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="1">
         <v>43910</v>
       </c>
-      <c r="C116">
+      <c r="C121">
         <v>1.8</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" t="s">
-        <v>4</v>
-      </c>
-      <c r="B117" s="1">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="1">
         <v>43911</v>
       </c>
-      <c r="C117">
+      <c r="C122">
         <v>2.5</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" t="s">
-        <v>4</v>
-      </c>
-      <c r="B118" s="1">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="1">
         <v>43912</v>
       </c>
-      <c r="C118">
+      <c r="C123">
         <v>3.1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" t="s">
-        <v>4</v>
-      </c>
-      <c r="B119" s="1">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="1">
         <v>43913</v>
       </c>
-      <c r="C119">
+      <c r="C124">
         <v>2.1</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" t="s">
-        <v>4</v>
-      </c>
-      <c r="B120" s="1">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="1">
         <v>43914</v>
       </c>
-      <c r="C120">
+      <c r="C125">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" t="s">
-        <v>4</v>
-      </c>
-      <c r="B121" s="1">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="1">
         <v>43915</v>
       </c>
-      <c r="C121">
+      <c r="C126">
         <v>1.9</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" t="s">
-        <v>4</v>
-      </c>
-      <c r="B122" s="1">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="1">
         <v>43916</v>
       </c>
-      <c r="C122">
+      <c r="C127">
         <v>1.9</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" t="s">
-        <v>4</v>
-      </c>
-      <c r="B123" s="1">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="1">
         <v>43917</v>
       </c>
-      <c r="C123">
+      <c r="C128">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" t="s">
-        <v>4</v>
-      </c>
-      <c r="B124" s="1">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="1">
         <v>43918</v>
       </c>
-      <c r="C124">
+      <c r="C129">
         <v>3.1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" t="s">
-        <v>4</v>
-      </c>
-      <c r="B125" s="1">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="1">
         <v>43919</v>
-      </c>
-      <c r="C125">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" t="s">
-        <v>4</v>
-      </c>
-      <c r="B126" s="1">
-        <v>43920</v>
-      </c>
-      <c r="C126">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" t="s">
-        <v>4</v>
-      </c>
-      <c r="B127" s="1">
-        <v>43921</v>
-      </c>
-      <c r="C127">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" t="s">
-        <v>4</v>
-      </c>
-      <c r="B128" s="1">
-        <v>43922</v>
-      </c>
-      <c r="C128">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" t="s">
-        <v>4</v>
-      </c>
-      <c r="B129" s="1">
-        <v>43923</v>
-      </c>
-      <c r="C129">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" t="s">
-        <v>4</v>
-      </c>
-      <c r="B130" s="1">
-        <v>43924</v>
       </c>
       <c r="C130">
         <v>3.7</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>4</v>
       </c>
       <c r="B131" s="1">
+        <v>43920</v>
+      </c>
+      <c r="C131">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="1">
+        <v>43921</v>
+      </c>
+      <c r="C132">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="1">
+        <v>43922</v>
+      </c>
+      <c r="C133">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="1">
+        <v>43923</v>
+      </c>
+      <c r="C134">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="1">
+        <v>43924</v>
+      </c>
+      <c r="C135">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="1">
         <v>43925</v>
       </c>
-      <c r="C131">
+      <c r="C136">
         <v>3.9</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132" t="s">
-        <v>4</v>
-      </c>
-      <c r="B132" s="1">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="1">
         <v>43926</v>
       </c>
-      <c r="C132">
+      <c r="C137">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133" t="s">
-        <v>4</v>
-      </c>
-      <c r="B133" s="1">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="1">
         <v>43927</v>
-      </c>
-      <c r="C133">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134" t="s">
-        <v>4</v>
-      </c>
-      <c r="B134" s="1">
-        <v>43928</v>
-      </c>
-      <c r="C134">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A135" t="s">
-        <v>4</v>
-      </c>
-      <c r="B135" s="1">
-        <v>43929</v>
-      </c>
-      <c r="C135">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" t="s">
-        <v>4</v>
-      </c>
-      <c r="B136" s="1">
-        <v>43930</v>
-      </c>
-      <c r="C136">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" t="s">
-        <v>4</v>
-      </c>
-      <c r="B137" s="1">
-        <v>43931</v>
-      </c>
-      <c r="C137">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A138" t="s">
-        <v>4</v>
-      </c>
-      <c r="B138" s="1">
-        <v>43932</v>
       </c>
       <c r="C138">
         <v>3.5</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>4</v>
       </c>
       <c r="B139" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C139">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C140">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="1">
+        <v>43930</v>
+      </c>
+      <c r="C141">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="1">
+        <v>43931</v>
+      </c>
+      <c r="C142">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C143">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="1">
         <v>43933</v>
       </c>
-      <c r="C139">
+      <c r="C144">
         <v>3.9</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A140" t="s">
-        <v>4</v>
-      </c>
-      <c r="B140" s="1">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="1">
         <v>43934</v>
       </c>
-      <c r="C140">
+      <c r="C145">
         <v>3.2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141" t="s">
-        <v>4</v>
-      </c>
-      <c r="B141" s="1">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="1">
         <v>43935</v>
       </c>
-      <c r="C141">
+      <c r="C146">
         <v>3.1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142" t="s">
-        <v>4</v>
-      </c>
-      <c r="B142" s="1">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="1">
         <v>43936</v>
       </c>
-      <c r="C142">
+      <c r="C147">
         <v>3.3</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143" t="s">
-        <v>4</v>
-      </c>
-      <c r="B143" s="1">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="1">
         <v>43937</v>
       </c>
-      <c r="C143">
+      <c r="C148">
         <v>3.2</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A144" t="s">
-        <v>4</v>
-      </c>
-      <c r="B144" s="1">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" s="1">
         <v>43938</v>
       </c>
-      <c r="C144">
+      <c r="C149">
         <v>3.1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" t="s">
-        <v>4</v>
-      </c>
-      <c r="B145" s="1">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="1">
         <v>43939</v>
       </c>
-      <c r="C145">
+      <c r="C150">
         <v>3.5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" t="s">
-        <v>4</v>
-      </c>
-      <c r="B146" s="1">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="1">
         <v>43940</v>
       </c>
-      <c r="C146">
+      <c r="C151">
         <v>3.8</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147" t="s">
-        <v>4</v>
-      </c>
-      <c r="B147" s="1">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="1">
         <v>43941</v>
       </c>
-      <c r="C147">
+      <c r="C152">
         <v>3.5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A148" t="s">
-        <v>4</v>
-      </c>
-      <c r="B148" s="1">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="1">
         <v>43942</v>
       </c>
-      <c r="C148">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A149" t="s">
-        <v>4</v>
-      </c>
-      <c r="B149" s="1">
+      <c r="C153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" s="1">
         <v>43943</v>
       </c>
-      <c r="C149">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A150" t="s">
-        <v>4</v>
-      </c>
-      <c r="B150" s="1">
+      <c r="C154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="1">
         <v>43944</v>
       </c>
-      <c r="C150">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A151" t="s">
-        <v>4</v>
-      </c>
-      <c r="B151" s="1">
+      <c r="C155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="1">
         <v>43945</v>
       </c>
-      <c r="C151">
+      <c r="C156">
         <v>2.9</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A152" t="s">
-        <v>4</v>
-      </c>
-      <c r="B152" s="1">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" s="1">
         <v>43946</v>
       </c>
-      <c r="C152">
+      <c r="C157">
         <v>3.3</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A153" t="s">
-        <v>4</v>
-      </c>
-      <c r="B153" s="1">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="1">
         <v>43947</v>
       </c>
-      <c r="C153">
+      <c r="C158">
         <v>3.8</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A154" t="s">
-        <v>4</v>
-      </c>
-      <c r="B154" s="1">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" s="1">
         <v>43948</v>
       </c>
-      <c r="C154">
+      <c r="C159">
         <v>2.9</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" t="s">
-        <v>4</v>
-      </c>
-      <c r="B155" s="1">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" s="1">
         <v>43949</v>
       </c>
-      <c r="C155">
+      <c r="C160">
         <v>2.8</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A156" t="s">
-        <v>4</v>
-      </c>
-      <c r="B156" s="1">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="1">
         <v>43950</v>
       </c>
-      <c r="C156">
+      <c r="C161">
         <v>2.8</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A157" t="s">
-        <v>4</v>
-      </c>
-      <c r="B157" s="1">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" s="1">
         <v>43951</v>
       </c>
-      <c r="C157">
+      <c r="C162">
         <v>2.7</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A158" t="s">
-        <v>4</v>
-      </c>
-      <c r="B158" s="1">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" s="1">
         <v>43952</v>
       </c>
-      <c r="C158">
+      <c r="C163">
         <v>3.2</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A159" t="s">
-        <v>4</v>
-      </c>
-      <c r="B159" s="1">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="1">
         <v>43953</v>
       </c>
-      <c r="C159">
+      <c r="C164">
         <v>3.3</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A160" t="s">
-        <v>4</v>
-      </c>
-      <c r="B160" s="1">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" s="1">
         <v>43954</v>
       </c>
-      <c r="C160">
+      <c r="C165">
         <v>3.5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A161" t="s">
-        <v>4</v>
-      </c>
-      <c r="B161" s="1">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="1">
         <v>43955</v>
-      </c>
-      <c r="C161">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162" t="s">
-        <v>4</v>
-      </c>
-      <c r="B162" s="1">
-        <v>43956</v>
-      </c>
-      <c r="C162">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A163" t="s">
-        <v>4</v>
-      </c>
-      <c r="B163" s="1">
-        <v>43957</v>
-      </c>
-      <c r="C163">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A164" t="s">
-        <v>4</v>
-      </c>
-      <c r="B164" s="1">
-        <v>43958</v>
-      </c>
-      <c r="C164">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A165" t="s">
-        <v>4</v>
-      </c>
-      <c r="B165" s="1">
-        <v>43959</v>
-      </c>
-      <c r="C165">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A166" t="s">
-        <v>4</v>
-      </c>
-      <c r="B166" s="1">
-        <v>43960</v>
       </c>
       <c r="C166">
         <v>3.3</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>4</v>
       </c>
       <c r="B167" s="1">
+        <v>43956</v>
+      </c>
+      <c r="C167">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" s="1">
+        <v>43957</v>
+      </c>
+      <c r="C168">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" s="1">
+        <v>43958</v>
+      </c>
+      <c r="C169">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" s="1">
+        <v>43959</v>
+      </c>
+      <c r="C170">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" s="1">
+        <v>43960</v>
+      </c>
+      <c r="C171">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="1">
         <v>43961</v>
       </c>
-      <c r="C167">
+      <c r="C172">
         <v>3.4</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A168" t="s">
-        <v>4</v>
-      </c>
-      <c r="B168" s="1">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" s="1">
         <v>43962</v>
       </c>
-      <c r="C168">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A169" t="s">
-        <v>4</v>
-      </c>
-      <c r="B169" s="1">
+      <c r="C173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="1">
         <v>43963</v>
       </c>
-      <c r="C169">
+      <c r="C174">
         <v>2.4</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A170" t="s">
-        <v>4</v>
-      </c>
-      <c r="B170" s="1">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" s="1">
         <v>43964</v>
-      </c>
-      <c r="C170">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A171" t="s">
-        <v>4</v>
-      </c>
-      <c r="B171" s="1">
-        <v>43965</v>
-      </c>
-      <c r="C171">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A172" t="s">
-        <v>4</v>
-      </c>
-      <c r="B172" s="1">
-        <v>43966</v>
-      </c>
-      <c r="C172">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A173" t="s">
-        <v>4</v>
-      </c>
-      <c r="B173" s="1">
-        <v>43967</v>
-      </c>
-      <c r="C173">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A174" t="s">
-        <v>4</v>
-      </c>
-      <c r="B174" s="1">
-        <v>43968</v>
-      </c>
-      <c r="C174">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A175" t="s">
-        <v>4</v>
-      </c>
-      <c r="B175" s="1">
-        <v>43969</v>
       </c>
       <c r="C175">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>4</v>
       </c>
       <c r="B176" s="1">
+        <v>43965</v>
+      </c>
+      <c r="C176">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" s="1">
+        <v>43966</v>
+      </c>
+      <c r="C177">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" s="1">
+        <v>43967</v>
+      </c>
+      <c r="C178">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" s="1">
+        <v>43968</v>
+      </c>
+      <c r="C179">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" s="1">
+        <v>43969</v>
+      </c>
+      <c r="C180">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" s="1">
         <v>43970</v>
       </c>
-      <c r="C176">
+      <c r="C181">
         <v>2.1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A177" t="s">
-        <v>4</v>
-      </c>
-      <c r="B177" s="1">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" s="1">
         <v>43971</v>
       </c>
-      <c r="C177">
+      <c r="C182">
         <v>2.1</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B178" s="1">
-        <v>43884</v>
-      </c>
-      <c r="C178">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B179" s="1">
-        <v>43885</v>
-      </c>
-      <c r="C179">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B180" s="1">
-        <v>43886</v>
-      </c>
-      <c r="C180">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B181" s="1">
-        <v>43887</v>
-      </c>
-      <c r="C181">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B182" s="1">
-        <v>43888</v>
-      </c>
-      <c r="C182">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B183" s="1">
-        <v>43889</v>
+        <v>43972</v>
       </c>
       <c r="C183">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B184" s="1">
-        <v>43890</v>
+        <v>43973</v>
       </c>
       <c r="C184">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B185" s="1">
-        <v>43891</v>
+        <v>43974</v>
       </c>
       <c r="C185">
         <v>2.6</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B186" s="1">
-        <v>43892</v>
+        <v>43975</v>
       </c>
       <c r="C186">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B187" s="1">
-        <v>43893</v>
+        <v>43976</v>
       </c>
       <c r="C187">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>5</v>
       </c>
       <c r="B188" s="1">
-        <v>43894</v>
+        <v>43884</v>
       </c>
       <c r="C188">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>5</v>
       </c>
       <c r="B189" s="1">
-        <v>43895</v>
+        <v>43885</v>
       </c>
       <c r="C189">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>5</v>
       </c>
       <c r="B190" s="1">
-        <v>43896</v>
+        <v>43886</v>
       </c>
       <c r="C190">
         <v>0.4</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>5</v>
       </c>
       <c r="B191" s="1">
-        <v>43897</v>
+        <v>43887</v>
       </c>
       <c r="C191">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192" s="1">
+        <v>43888</v>
+      </c>
+      <c r="C192">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" s="1">
+        <v>43889</v>
+      </c>
+      <c r="C193">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194" s="1">
+        <v>43890</v>
+      </c>
+      <c r="C194">
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B192" s="1">
-        <v>43898</v>
-      </c>
-      <c r="C192">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B193" s="1">
-        <v>43899</v>
-      </c>
-      <c r="C193">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B194" s="1">
-        <v>43900</v>
-      </c>
-      <c r="C194">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>5</v>
       </c>
       <c r="B195" s="1">
-        <v>43901</v>
+        <v>43891</v>
       </c>
       <c r="C195">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>5</v>
       </c>
       <c r="B196" s="1">
-        <v>43902</v>
+        <v>43892</v>
       </c>
       <c r="C196">
         <v>0.5</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>5</v>
       </c>
       <c r="B197" s="1">
+        <v>43893</v>
+      </c>
+      <c r="C197">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" s="1">
+        <v>43894</v>
+      </c>
+      <c r="C198">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" s="1">
+        <v>43895</v>
+      </c>
+      <c r="C199">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" s="1">
+        <v>43896</v>
+      </c>
+      <c r="C200">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" s="1">
+        <v>43897</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" s="1">
+        <v>43898</v>
+      </c>
+      <c r="C202">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" s="1">
+        <v>43899</v>
+      </c>
+      <c r="C203">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204" s="1">
+        <v>43900</v>
+      </c>
+      <c r="C204">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" s="1">
+        <v>43901</v>
+      </c>
+      <c r="C205">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206" s="1">
+        <v>43902</v>
+      </c>
+      <c r="C206">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" s="1">
         <v>43903</v>
       </c>
-      <c r="C197">
+      <c r="C207">
         <v>0.5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B198" s="1">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" s="1">
         <v>43904</v>
       </c>
-      <c r="C198">
+      <c r="C208">
         <v>2.1</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B199" s="1">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" s="1">
         <v>43905</v>
       </c>
-      <c r="C199">
+      <c r="C209">
         <v>2.6</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B200" s="1">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" s="1">
         <v>43906</v>
       </c>
-      <c r="C200">
+      <c r="C210">
         <v>0.7</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B201" s="1">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" s="1">
         <v>43907</v>
       </c>
-      <c r="C201">
+      <c r="C211">
         <v>0.6</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B202" s="1">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" s="1">
         <v>43908</v>
       </c>
-      <c r="C202">
+      <c r="C212">
         <v>0.8</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B203" s="1">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B213" s="1">
         <v>43909</v>
       </c>
-      <c r="C203">
+      <c r="C213">
         <v>0.9</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B204" s="1">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" s="1">
         <v>43910</v>
       </c>
-      <c r="C204">
+      <c r="C214">
         <v>0.9</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B205" s="1">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215" s="1">
         <v>43911</v>
       </c>
-      <c r="C205">
+      <c r="C215">
         <v>2.4</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B206" s="1">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B216" s="1">
         <v>43912</v>
       </c>
-      <c r="C206">
+      <c r="C216">
         <v>2.8</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B207" s="1">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B217" s="1">
         <v>43913</v>
       </c>
-      <c r="C207">
+      <c r="C217">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B208" s="1">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>5</v>
+      </c>
+      <c r="B218" s="1">
         <v>43914</v>
       </c>
-      <c r="C208">
+      <c r="C218">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B209" s="1">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>5</v>
+      </c>
+      <c r="B219" s="1">
         <v>43915</v>
       </c>
-      <c r="C209">
+      <c r="C219">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B210" s="1">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>5</v>
+      </c>
+      <c r="B220" s="1">
         <v>43916</v>
       </c>
-      <c r="C210">
+      <c r="C220">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B211" s="1">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>5</v>
+      </c>
+      <c r="B221" s="1">
         <v>43917</v>
       </c>
-      <c r="C211">
+      <c r="C221">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B212" s="1">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>5</v>
+      </c>
+      <c r="B222" s="1">
         <v>43918</v>
       </c>
-      <c r="C212">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B213" s="1">
+      <c r="C222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>5</v>
+      </c>
+      <c r="B223" s="1">
         <v>43919</v>
       </c>
-      <c r="C213">
+      <c r="C223">
         <v>3.6</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B214" s="1">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>5</v>
+      </c>
+      <c r="B224" s="1">
         <v>43920</v>
       </c>
-      <c r="C214">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B215" s="1">
+      <c r="C224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>5</v>
+      </c>
+      <c r="B225" s="1">
         <v>43921</v>
       </c>
-      <c r="C215">
+      <c r="C225">
         <v>3.2</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B216" s="1">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" s="1">
         <v>43922</v>
       </c>
-      <c r="C216">
+      <c r="C226">
         <v>3.4</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B217" s="1">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>5</v>
+      </c>
+      <c r="B227" s="1">
         <v>43923</v>
       </c>
-      <c r="C217">
+      <c r="C227">
         <v>3.5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A218" t="s">
-        <v>5</v>
-      </c>
-      <c r="B218" s="1">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>5</v>
+      </c>
+      <c r="B228" s="1">
         <v>43924</v>
       </c>
-      <c r="C218">
+      <c r="C228">
         <v>3.4</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A219" t="s">
-        <v>5</v>
-      </c>
-      <c r="B219" s="1">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>5</v>
+      </c>
+      <c r="B229" s="1">
         <v>43925</v>
       </c>
-      <c r="C219">
+      <c r="C229">
         <v>3.8</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A220" t="s">
-        <v>5</v>
-      </c>
-      <c r="B220" s="1">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>5</v>
+      </c>
+      <c r="B230" s="1">
         <v>43926</v>
       </c>
-      <c r="C220">
+      <c r="C230">
         <v>3.9</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A221" t="s">
-        <v>5</v>
-      </c>
-      <c r="B221" s="1">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231" s="1">
         <v>43927</v>
       </c>
-      <c r="C221">
+      <c r="C231">
         <v>2.9</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A222" t="s">
-        <v>5</v>
-      </c>
-      <c r="B222" s="1">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>5</v>
+      </c>
+      <c r="B232" s="1">
         <v>43928</v>
       </c>
-      <c r="C222">
+      <c r="C232">
         <v>2.8</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A223" t="s">
-        <v>5</v>
-      </c>
-      <c r="B223" s="1">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>5</v>
+      </c>
+      <c r="B233" s="1">
         <v>43929</v>
       </c>
-      <c r="C223">
+      <c r="C233">
         <v>2.8</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A224" t="s">
-        <v>5</v>
-      </c>
-      <c r="B224" s="1">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>5</v>
+      </c>
+      <c r="B234" s="1">
         <v>43930</v>
       </c>
-      <c r="C224">
+      <c r="C234">
         <v>2.8</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A225" t="s">
-        <v>5</v>
-      </c>
-      <c r="B225" s="1">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235" s="1">
         <v>43931</v>
-      </c>
-      <c r="C225">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A226" t="s">
-        <v>5</v>
-      </c>
-      <c r="B226" s="1">
-        <v>43932</v>
-      </c>
-      <c r="C226">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A227" t="s">
-        <v>5</v>
-      </c>
-      <c r="B227" s="1">
-        <v>43933</v>
-      </c>
-      <c r="C227">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A228" t="s">
-        <v>5</v>
-      </c>
-      <c r="B228" s="1">
-        <v>43934</v>
-      </c>
-      <c r="C228">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A229" t="s">
-        <v>5</v>
-      </c>
-      <c r="B229" s="1">
-        <v>43935</v>
-      </c>
-      <c r="C229">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A230" t="s">
-        <v>5</v>
-      </c>
-      <c r="B230" s="1">
-        <v>43936</v>
-      </c>
-      <c r="C230">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A231" t="s">
-        <v>5</v>
-      </c>
-      <c r="B231" s="1">
-        <v>43937</v>
-      </c>
-      <c r="C231">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A232" t="s">
-        <v>5</v>
-      </c>
-      <c r="B232" s="1">
-        <v>43938</v>
-      </c>
-      <c r="C232">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A233" t="s">
-        <v>5</v>
-      </c>
-      <c r="B233" s="1">
-        <v>43939</v>
-      </c>
-      <c r="C233">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A234" t="s">
-        <v>5</v>
-      </c>
-      <c r="B234" s="1">
-        <v>43940</v>
-      </c>
-      <c r="C234">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A235" t="s">
-        <v>5</v>
-      </c>
-      <c r="B235" s="1">
-        <v>43941</v>
       </c>
       <c r="C235">
         <v>2.7</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>5</v>
       </c>
       <c r="B236" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C236">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237" s="1">
+        <v>43933</v>
+      </c>
+      <c r="C237">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C238">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" s="1">
+        <v>43935</v>
+      </c>
+      <c r="C239">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>5</v>
+      </c>
+      <c r="B240" s="1">
+        <v>43936</v>
+      </c>
+      <c r="C240">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>5</v>
+      </c>
+      <c r="B241" s="1">
+        <v>43937</v>
+      </c>
+      <c r="C241">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>5</v>
+      </c>
+      <c r="B242" s="1">
+        <v>43938</v>
+      </c>
+      <c r="C242">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>5</v>
+      </c>
+      <c r="B243" s="1">
+        <v>43939</v>
+      </c>
+      <c r="C243">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244" s="1">
+        <v>43940</v>
+      </c>
+      <c r="C244">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245" s="1">
+        <v>43941</v>
+      </c>
+      <c r="C245">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>5</v>
+      </c>
+      <c r="B246" s="1">
         <v>43942</v>
       </c>
-      <c r="C236">
+      <c r="C246">
         <v>2.6</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A237" t="s">
-        <v>5</v>
-      </c>
-      <c r="B237" s="1">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>5</v>
+      </c>
+      <c r="B247" s="1">
         <v>43943</v>
       </c>
-      <c r="C237">
+      <c r="C247">
         <v>2.6</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A238" t="s">
-        <v>5</v>
-      </c>
-      <c r="B238" s="1">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>5</v>
+      </c>
+      <c r="B248" s="1">
         <v>43944</v>
       </c>
-      <c r="C238">
+      <c r="C248">
         <v>2.5</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A239" t="s">
-        <v>5</v>
-      </c>
-      <c r="B239" s="1">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>5</v>
+      </c>
+      <c r="B249" s="1">
         <v>43945</v>
       </c>
-      <c r="C239">
+      <c r="C249">
         <v>2.6</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A240" t="s">
-        <v>5</v>
-      </c>
-      <c r="B240" s="1">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>5</v>
+      </c>
+      <c r="B250" s="1">
         <v>43946</v>
       </c>
-      <c r="C240">
+      <c r="C250">
         <v>3.2</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A241" t="s">
-        <v>5</v>
-      </c>
-      <c r="B241" s="1">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>5</v>
+      </c>
+      <c r="B251" s="1">
         <v>43947</v>
       </c>
-      <c r="C241">
+      <c r="C251">
         <v>3.6</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A242" t="s">
-        <v>5</v>
-      </c>
-      <c r="B242" s="1">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>5</v>
+      </c>
+      <c r="B252" s="1">
         <v>43948</v>
       </c>
-      <c r="C242">
+      <c r="C252">
         <v>2.5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A243" t="s">
-        <v>5</v>
-      </c>
-      <c r="B243" s="1">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>5</v>
+      </c>
+      <c r="B253" s="1">
         <v>43949</v>
       </c>
-      <c r="C243">
+      <c r="C253">
         <v>2.4</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A244" t="s">
-        <v>5</v>
-      </c>
-      <c r="B244" s="1">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>5</v>
+      </c>
+      <c r="B254" s="1">
         <v>43950</v>
       </c>
-      <c r="C244">
+      <c r="C254">
         <v>2.4</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A245" t="s">
-        <v>5</v>
-      </c>
-      <c r="B245" s="1">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>5</v>
+      </c>
+      <c r="B255" s="1">
         <v>43951</v>
       </c>
-      <c r="C245">
+      <c r="C255">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A246" t="s">
-        <v>5</v>
-      </c>
-      <c r="B246" s="1">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>5</v>
+      </c>
+      <c r="B256" s="1">
         <v>43952</v>
       </c>
-      <c r="C246">
+      <c r="C256">
         <v>3.1</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A247" t="s">
-        <v>5</v>
-      </c>
-      <c r="B247" s="1">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>5</v>
+      </c>
+      <c r="B257" s="1">
         <v>43953</v>
       </c>
-      <c r="C247">
+      <c r="C257">
         <v>3.1</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A248" t="s">
-        <v>5</v>
-      </c>
-      <c r="B248" s="1">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>5</v>
+      </c>
+      <c r="B258" s="1">
         <v>43954</v>
       </c>
-      <c r="C248">
+      <c r="C258">
         <v>3.4</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A249" t="s">
-        <v>5</v>
-      </c>
-      <c r="B249" s="1">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>5</v>
+      </c>
+      <c r="B259" s="1">
         <v>43955</v>
       </c>
-      <c r="C249">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A250" t="s">
-        <v>5</v>
-      </c>
-      <c r="B250" s="1">
+      <c r="C259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>5</v>
+      </c>
+      <c r="B260" s="1">
         <v>43956</v>
       </c>
-      <c r="C250">
+      <c r="C260">
         <v>2.9</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A251" t="s">
-        <v>5</v>
-      </c>
-      <c r="B251" s="1">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>5</v>
+      </c>
+      <c r="B261" s="1">
         <v>43957</v>
       </c>
-      <c r="C251">
+      <c r="C261">
         <v>2.1</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A252" t="s">
-        <v>5</v>
-      </c>
-      <c r="B252" s="1">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>5</v>
+      </c>
+      <c r="B262" s="1">
         <v>43958</v>
       </c>
-      <c r="C252">
+      <c r="C262">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A253" t="s">
-        <v>5</v>
-      </c>
-      <c r="B253" s="1">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>5</v>
+      </c>
+      <c r="B263" s="1">
         <v>43959</v>
       </c>
-      <c r="C253">
+      <c r="C263">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A254" t="s">
-        <v>5</v>
-      </c>
-      <c r="B254" s="1">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>5</v>
+      </c>
+      <c r="B264" s="1">
         <v>43960</v>
       </c>
-      <c r="C254">
+      <c r="C264">
         <v>3.1</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A255" t="s">
-        <v>5</v>
-      </c>
-      <c r="B255" s="1">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>5</v>
+      </c>
+      <c r="B265" s="1">
         <v>43961</v>
       </c>
-      <c r="C255">
+      <c r="C265">
         <v>3.1</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A256" t="s">
-        <v>5</v>
-      </c>
-      <c r="B256" s="1">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>5</v>
+      </c>
+      <c r="B266" s="1">
         <v>43962</v>
       </c>
-      <c r="C256">
+      <c r="C266">
         <v>2.9</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A257" t="s">
-        <v>5</v>
-      </c>
-      <c r="B257" s="1">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>5</v>
+      </c>
+      <c r="B267" s="1">
         <v>43963</v>
       </c>
-      <c r="C257">
+      <c r="C267">
         <v>2.1</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A258" t="s">
-        <v>5</v>
-      </c>
-      <c r="B258" s="1">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>5</v>
+      </c>
+      <c r="B268" s="1">
         <v>43964</v>
       </c>
-      <c r="C258">
+      <c r="C268">
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A259" t="s">
-        <v>5</v>
-      </c>
-      <c r="B259" s="1">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>5</v>
+      </c>
+      <c r="B269" s="1">
         <v>43965</v>
       </c>
-      <c r="C259">
+      <c r="C269">
         <v>2.1</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A260" t="s">
-        <v>5</v>
-      </c>
-      <c r="B260" s="1">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>5</v>
+      </c>
+      <c r="B270" s="1">
         <v>43966</v>
       </c>
-      <c r="C260">
+      <c r="C270">
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A261" t="s">
-        <v>5</v>
-      </c>
-      <c r="B261" s="1">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>5</v>
+      </c>
+      <c r="B271" s="1">
         <v>43967</v>
       </c>
-      <c r="C261">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A262" t="s">
-        <v>5</v>
-      </c>
-      <c r="B262" s="1">
+      <c r="C271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>5</v>
+      </c>
+      <c r="B272" s="1">
         <v>43968</v>
       </c>
-      <c r="C262">
+      <c r="C272">
         <v>3.2</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A263" t="s">
-        <v>5</v>
-      </c>
-      <c r="B263" s="1">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>5</v>
+      </c>
+      <c r="B273" s="1">
         <v>43969</v>
       </c>
-      <c r="C263">
+      <c r="C273">
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A264" t="s">
-        <v>5</v>
-      </c>
-      <c r="B264" s="1">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274" s="1">
         <v>43970</v>
       </c>
-      <c r="C264">
+      <c r="C274">
         <v>1.9</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A265" t="s">
-        <v>5</v>
-      </c>
-      <c r="B265" s="1">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>5</v>
+      </c>
+      <c r="B275" s="1">
         <v>43971</v>
       </c>
-      <c r="C265">
+      <c r="C275">
         <v>1.9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>5</v>
+      </c>
+      <c r="B276" s="1">
+        <v>43972</v>
+      </c>
+      <c r="C276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>5</v>
+      </c>
+      <c r="B277" s="1">
+        <v>43973</v>
+      </c>
+      <c r="C277">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>5</v>
+      </c>
+      <c r="B278" s="1">
+        <v>43974</v>
+      </c>
+      <c r="C278">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>5</v>
+      </c>
+      <c r="B279" s="1">
+        <v>43975</v>
+      </c>
+      <c r="C279">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>5</v>
+      </c>
+      <c r="B280" s="1">
+        <v>43976</v>
+      </c>
+      <c r="C280">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/index_si_moscow_stpetersburg_sevastopol.xlsx
+++ b/index_si_moscow_stpetersburg_sevastopol.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C101EEA-08BB-43AA-A759-76A5C2004AAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C2F2BC-6732-4F5A-A54B-1CFFA71ED6ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="606" windowWidth="19200" windowHeight="10194" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart data" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="6">
   <si>
     <t>state</t>
   </si>
@@ -413,17 +413,18 @@
   <sheetPr>
     <tabColor rgb="FFFEBA00"/>
   </sheetPr>
-  <dimension ref="A1:C280"/>
+  <dimension ref="A1:C289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="4" width="12" customWidth="1"/>
+    <col min="1" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -445,7 +446,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -456,7 +457,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -467,7 +468,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -478,7 +479,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -489,7 +490,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -500,7 +501,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -511,7 +512,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -522,7 +523,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -533,7 +534,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -544,7 +545,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -555,7 +556,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -566,7 +567,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -577,7 +578,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -588,7 +589,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -599,7 +600,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -610,7 +611,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -621,7 +622,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -632,7 +633,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -643,7 +644,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -654,7 +655,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -665,7 +666,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -676,7 +677,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -687,7 +688,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -698,7 +699,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -709,7 +710,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -720,7 +721,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -731,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -742,7 +743,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -753,7 +754,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -764,7 +765,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -775,7 +776,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -786,7 +787,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -797,7 +798,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -808,7 +809,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -819,7 +820,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -830,7 +831,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -841,7 +842,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -852,7 +853,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -863,7 +864,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -874,7 +875,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -885,7 +886,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -896,7 +897,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -907,7 +908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -918,7 +919,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -929,7 +930,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -940,7 +941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -951,7 +952,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -962,7 +963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -973,7 +974,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -984,7 +985,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -995,7 +996,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -1006,7 +1007,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -1017,7 +1018,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -1028,7 +1029,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -1061,7 +1062,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -1072,7 +1073,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -1083,7 +1084,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -1094,7 +1095,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -1105,7 +1106,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -1116,7 +1117,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -1127,7 +1128,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -1149,7 +1150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -1160,7 +1161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -1171,7 +1172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -1193,7 +1194,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -1204,7 +1205,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -1215,7 +1216,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -1226,7 +1227,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -1237,7 +1238,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -1259,7 +1260,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -1270,7 +1271,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -1281,7 +1282,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -1292,7 +1293,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -1303,7 +1304,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -1314,7 +1315,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -1325,7 +1326,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -1336,7 +1337,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -1347,7 +1348,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -1358,7 +1359,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -1369,7 +1370,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -1391,7 +1392,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -1413,7 +1414,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -1424,7 +1425,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -1435,7 +1436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -1457,2049 +1458,2148 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B95" s="1">
+        <v>43977</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="1">
+        <v>43978</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="1">
+        <v>43979</v>
+      </c>
+      <c r="C97">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="1">
         <v>43884</v>
       </c>
-      <c r="C95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>4</v>
-      </c>
-      <c r="B96" s="1">
+      <c r="C98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="1">
         <v>43885</v>
       </c>
-      <c r="C96">
+      <c r="C99">
         <v>3.4</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>4</v>
-      </c>
-      <c r="B97" s="1">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="1">
         <v>43886</v>
       </c>
-      <c r="C97">
+      <c r="C100">
         <v>1.6</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>4</v>
-      </c>
-      <c r="B98" s="1">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="1">
         <v>43887</v>
       </c>
-      <c r="C98">
+      <c r="C101">
         <v>1.6</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>4</v>
-      </c>
-      <c r="B99" s="1">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="1">
         <v>43888</v>
       </c>
-      <c r="C99">
+      <c r="C102">
         <v>1.6</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>4</v>
-      </c>
-      <c r="B100" s="1">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="1">
         <v>43889</v>
-      </c>
-      <c r="C100">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>4</v>
-      </c>
-      <c r="B101" s="1">
-        <v>43890</v>
-      </c>
-      <c r="C101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>4</v>
-      </c>
-      <c r="B102" s="1">
-        <v>43891</v>
-      </c>
-      <c r="C102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>4</v>
-      </c>
-      <c r="B103" s="1">
-        <v>43892</v>
       </c>
       <c r="C103">
         <v>1.7</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>4</v>
       </c>
       <c r="B104" s="1">
+        <v>43890</v>
+      </c>
+      <c r="C104">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43891</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43892</v>
+      </c>
+      <c r="C106">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="1">
         <v>43893</v>
       </c>
-      <c r="C104">
+      <c r="C107">
         <v>1.5</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>4</v>
-      </c>
-      <c r="B105" s="1">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="1">
         <v>43894</v>
       </c>
-      <c r="C105">
+      <c r="C108">
         <v>1.4</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>4</v>
-      </c>
-      <c r="B106" s="1">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="1">
         <v>43895</v>
       </c>
-      <c r="C106">
+      <c r="C109">
         <v>1.4</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>4</v>
-      </c>
-      <c r="B107" s="1">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="1">
         <v>43896</v>
       </c>
-      <c r="C107">
+      <c r="C110">
         <v>1.4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>4</v>
-      </c>
-      <c r="B108" s="1">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="1">
         <v>43897</v>
       </c>
-      <c r="C108">
+      <c r="C111">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>4</v>
-      </c>
-      <c r="B109" s="1">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="1">
         <v>43898</v>
       </c>
-      <c r="C109">
+      <c r="C112">
         <v>2.6</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>4</v>
-      </c>
-      <c r="B110" s="1">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="1">
         <v>43899</v>
       </c>
-      <c r="C110">
+      <c r="C113">
         <v>2.9</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>4</v>
-      </c>
-      <c r="B111" s="1">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="1">
         <v>43900</v>
       </c>
-      <c r="C111">
+      <c r="C114">
         <v>1.5</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>4</v>
-      </c>
-      <c r="B112" s="1">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="1">
         <v>43901</v>
       </c>
-      <c r="C112">
+      <c r="C115">
         <v>1.5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>4</v>
-      </c>
-      <c r="B113" s="1">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="1">
         <v>43902</v>
       </c>
-      <c r="C113">
+      <c r="C116">
         <v>1.4</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>4</v>
-      </c>
-      <c r="B114" s="1">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="1">
         <v>43903</v>
       </c>
-      <c r="C114">
+      <c r="C117">
         <v>1.4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>4</v>
-      </c>
-      <c r="B115" s="1">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="1">
         <v>43904</v>
       </c>
-      <c r="C115">
+      <c r="C118">
         <v>2.5</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>4</v>
-      </c>
-      <c r="B116" s="1">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" s="1">
         <v>43905</v>
       </c>
-      <c r="C116">
+      <c r="C119">
         <v>3.3</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>4</v>
-      </c>
-      <c r="B117" s="1">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" s="1">
         <v>43906</v>
       </c>
-      <c r="C117">
+      <c r="C120">
         <v>1.6</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>4</v>
-      </c>
-      <c r="B118" s="1">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="1">
         <v>43907</v>
       </c>
-      <c r="C118">
+      <c r="C121">
         <v>1.5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>4</v>
-      </c>
-      <c r="B119" s="1">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="1">
         <v>43908</v>
-      </c>
-      <c r="C119">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>4</v>
-      </c>
-      <c r="B120" s="1">
-        <v>43909</v>
-      </c>
-      <c r="C120">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>4</v>
-      </c>
-      <c r="B121" s="1">
-        <v>43910</v>
-      </c>
-      <c r="C121">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>4</v>
-      </c>
-      <c r="B122" s="1">
-        <v>43911</v>
       </c>
       <c r="C122">
         <v>2.5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>4</v>
       </c>
       <c r="B123" s="1">
+        <v>43909</v>
+      </c>
+      <c r="C123">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="1">
+        <v>43910</v>
+      </c>
+      <c r="C124">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="1">
+        <v>43911</v>
+      </c>
+      <c r="C125">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="1">
         <v>43912</v>
       </c>
-      <c r="C123">
+      <c r="C126">
         <v>3.1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>4</v>
-      </c>
-      <c r="B124" s="1">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="1">
         <v>43913</v>
       </c>
-      <c r="C124">
+      <c r="C127">
         <v>2.1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>4</v>
-      </c>
-      <c r="B125" s="1">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="1">
         <v>43914</v>
-      </c>
-      <c r="C125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>4</v>
-      </c>
-      <c r="B126" s="1">
-        <v>43915</v>
-      </c>
-      <c r="C126">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>4</v>
-      </c>
-      <c r="B127" s="1">
-        <v>43916</v>
-      </c>
-      <c r="C127">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>4</v>
-      </c>
-      <c r="B128" s="1">
-        <v>43917</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>4</v>
       </c>
       <c r="B129" s="1">
+        <v>43915</v>
+      </c>
+      <c r="C129">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="1">
+        <v>43916</v>
+      </c>
+      <c r="C130">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="1">
+        <v>43917</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="1">
         <v>43918</v>
       </c>
-      <c r="C129">
+      <c r="C132">
         <v>3.1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>4</v>
-      </c>
-      <c r="B130" s="1">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="1">
         <v>43919</v>
       </c>
-      <c r="C130">
+      <c r="C133">
         <v>3.7</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>4</v>
-      </c>
-      <c r="B131" s="1">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="1">
         <v>43920</v>
       </c>
-      <c r="C131">
+      <c r="C134">
         <v>3.2</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>4</v>
-      </c>
-      <c r="B132" s="1">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="1">
         <v>43921</v>
       </c>
-      <c r="C132">
+      <c r="C135">
         <v>3.4</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>4</v>
-      </c>
-      <c r="B133" s="1">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="1">
         <v>43922</v>
       </c>
-      <c r="C133">
+      <c r="C136">
         <v>3.6</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>4</v>
-      </c>
-      <c r="B134" s="1">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="1">
         <v>43923</v>
       </c>
-      <c r="C134">
+      <c r="C137">
         <v>3.9</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>4</v>
-      </c>
-      <c r="B135" s="1">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="1">
         <v>43924</v>
       </c>
-      <c r="C135">
+      <c r="C138">
         <v>3.7</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>4</v>
-      </c>
-      <c r="B136" s="1">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="1">
         <v>43925</v>
       </c>
-      <c r="C136">
+      <c r="C139">
         <v>3.9</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>4</v>
-      </c>
-      <c r="B137" s="1">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="1">
         <v>43926</v>
       </c>
-      <c r="C137">
+      <c r="C140">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>4</v>
-      </c>
-      <c r="B138" s="1">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="1">
         <v>43927</v>
       </c>
-      <c r="C138">
+      <c r="C141">
         <v>3.5</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>4</v>
-      </c>
-      <c r="B139" s="1">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="1">
         <v>43928</v>
       </c>
-      <c r="C139">
+      <c r="C142">
         <v>3.4</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>4</v>
-      </c>
-      <c r="B140" s="1">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="1">
         <v>43929</v>
       </c>
-      <c r="C140">
+      <c r="C143">
         <v>3.3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>4</v>
-      </c>
-      <c r="B141" s="1">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="1">
         <v>43930</v>
       </c>
-      <c r="C141">
+      <c r="C144">
         <v>3.3</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>4</v>
-      </c>
-      <c r="B142" s="1">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="1">
         <v>43931</v>
-      </c>
-      <c r="C142">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>4</v>
-      </c>
-      <c r="B143" s="1">
-        <v>43932</v>
-      </c>
-      <c r="C143">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>4</v>
-      </c>
-      <c r="B144" s="1">
-        <v>43933</v>
-      </c>
-      <c r="C144">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>4</v>
-      </c>
-      <c r="B145" s="1">
-        <v>43934</v>
       </c>
       <c r="C145">
         <v>3.2</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>4</v>
       </c>
       <c r="B146" s="1">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="C146">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>4</v>
       </c>
       <c r="B147" s="1">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="C147">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>4</v>
       </c>
       <c r="B148" s="1">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="C148">
         <v>3.2</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>4</v>
       </c>
       <c r="B149" s="1">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="C149">
         <v>3.1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>4</v>
       </c>
       <c r="B150" s="1">
+        <v>43936</v>
+      </c>
+      <c r="C150">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="1">
+        <v>43937</v>
+      </c>
+      <c r="C151">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="1">
+        <v>43938</v>
+      </c>
+      <c r="C152">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="1">
         <v>43939</v>
       </c>
-      <c r="C150">
+      <c r="C153">
         <v>3.5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>4</v>
-      </c>
-      <c r="B151" s="1">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" s="1">
         <v>43940</v>
       </c>
-      <c r="C151">
+      <c r="C154">
         <v>3.8</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>4</v>
-      </c>
-      <c r="B152" s="1">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="1">
         <v>43941</v>
       </c>
-      <c r="C152">
+      <c r="C155">
         <v>3.5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>4</v>
-      </c>
-      <c r="B153" s="1">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="1">
         <v>43942</v>
       </c>
-      <c r="C153">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>4</v>
-      </c>
-      <c r="B154" s="1">
+      <c r="C156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" s="1">
         <v>43943</v>
       </c>
-      <c r="C154">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>4</v>
-      </c>
-      <c r="B155" s="1">
+      <c r="C157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="1">
         <v>43944</v>
       </c>
-      <c r="C155">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>4</v>
-      </c>
-      <c r="B156" s="1">
+      <c r="C158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" s="1">
         <v>43945</v>
-      </c>
-      <c r="C156">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>4</v>
-      </c>
-      <c r="B157" s="1">
-        <v>43946</v>
-      </c>
-      <c r="C157">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>4</v>
-      </c>
-      <c r="B158" s="1">
-        <v>43947</v>
-      </c>
-      <c r="C158">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>4</v>
-      </c>
-      <c r="B159" s="1">
-        <v>43948</v>
       </c>
       <c r="C159">
         <v>2.9</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>4</v>
       </c>
       <c r="B160" s="1">
+        <v>43946</v>
+      </c>
+      <c r="C160">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="1">
+        <v>43947</v>
+      </c>
+      <c r="C161">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" s="1">
+        <v>43948</v>
+      </c>
+      <c r="C162">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" s="1">
         <v>43949</v>
       </c>
-      <c r="C160">
+      <c r="C163">
         <v>2.8</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>4</v>
-      </c>
-      <c r="B161" s="1">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="1">
         <v>43950</v>
       </c>
-      <c r="C161">
+      <c r="C164">
         <v>2.8</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>4</v>
-      </c>
-      <c r="B162" s="1">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" s="1">
         <v>43951</v>
       </c>
-      <c r="C162">
+      <c r="C165">
         <v>2.7</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>4</v>
-      </c>
-      <c r="B163" s="1">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="1">
         <v>43952</v>
       </c>
-      <c r="C163">
+      <c r="C166">
         <v>3.2</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>4</v>
-      </c>
-      <c r="B164" s="1">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" s="1">
         <v>43953</v>
       </c>
-      <c r="C164">
+      <c r="C167">
         <v>3.3</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>4</v>
-      </c>
-      <c r="B165" s="1">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" s="1">
         <v>43954</v>
       </c>
-      <c r="C165">
+      <c r="C168">
         <v>3.5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>4</v>
-      </c>
-      <c r="B166" s="1">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" s="1">
         <v>43955</v>
       </c>
-      <c r="C166">
+      <c r="C169">
         <v>3.3</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>4</v>
-      </c>
-      <c r="B167" s="1">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" s="1">
         <v>43956</v>
       </c>
-      <c r="C167">
+      <c r="C170">
         <v>3.2</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>4</v>
-      </c>
-      <c r="B168" s="1">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" s="1">
         <v>43957</v>
       </c>
-      <c r="C168">
+      <c r="C171">
         <v>2.7</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>4</v>
-      </c>
-      <c r="B169" s="1">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="1">
         <v>43958</v>
       </c>
-      <c r="C169">
+      <c r="C172">
         <v>2.7</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>4</v>
-      </c>
-      <c r="B170" s="1">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" s="1">
         <v>43959</v>
       </c>
-      <c r="C170">
+      <c r="C173">
         <v>2.8</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>4</v>
-      </c>
-      <c r="B171" s="1">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="1">
         <v>43960</v>
       </c>
-      <c r="C171">
+      <c r="C174">
         <v>3.3</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>4</v>
-      </c>
-      <c r="B172" s="1">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" s="1">
         <v>43961</v>
       </c>
-      <c r="C172">
+      <c r="C175">
         <v>3.4</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>4</v>
-      </c>
-      <c r="B173" s="1">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="1">
         <v>43962</v>
       </c>
-      <c r="C173">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>4</v>
-      </c>
-      <c r="B174" s="1">
+      <c r="C176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" s="1">
         <v>43963</v>
       </c>
-      <c r="C174">
+      <c r="C177">
         <v>2.4</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>4</v>
-      </c>
-      <c r="B175" s="1">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" s="1">
         <v>43964</v>
       </c>
-      <c r="C175">
+      <c r="C178">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>4</v>
-      </c>
-      <c r="B176" s="1">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" s="1">
         <v>43965</v>
       </c>
-      <c r="C176">
+      <c r="C179">
         <v>2.4</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>4</v>
-      </c>
-      <c r="B177" s="1">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" s="1">
         <v>43966</v>
-      </c>
-      <c r="C177">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>4</v>
-      </c>
-      <c r="B178" s="1">
-        <v>43967</v>
-      </c>
-      <c r="C178">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>4</v>
-      </c>
-      <c r="B179" s="1">
-        <v>43968</v>
-      </c>
-      <c r="C179">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>4</v>
-      </c>
-      <c r="B180" s="1">
-        <v>43969</v>
       </c>
       <c r="C180">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>4</v>
       </c>
       <c r="B181" s="1">
+        <v>43967</v>
+      </c>
+      <c r="C181">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" s="1">
+        <v>43968</v>
+      </c>
+      <c r="C182">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" s="1">
+        <v>43969</v>
+      </c>
+      <c r="C183">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184" s="1">
         <v>43970</v>
-      </c>
-      <c r="C181">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>4</v>
-      </c>
-      <c r="B182" s="1">
-        <v>43971</v>
-      </c>
-      <c r="C182">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>4</v>
-      </c>
-      <c r="B183" s="1">
-        <v>43972</v>
-      </c>
-      <c r="C183">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>4</v>
-      </c>
-      <c r="B184" s="1">
-        <v>43973</v>
       </c>
       <c r="C184">
         <v>2.1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>4</v>
       </c>
       <c r="B185" s="1">
-        <v>43974</v>
+        <v>43971</v>
       </c>
       <c r="C185">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>4</v>
       </c>
       <c r="B186" s="1">
-        <v>43975</v>
+        <v>43972</v>
       </c>
       <c r="C186">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>4</v>
       </c>
       <c r="B187" s="1">
-        <v>43976</v>
+        <v>43973</v>
       </c>
       <c r="C187">
         <v>2.1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B188" s="1">
+        <v>43974</v>
+      </c>
+      <c r="C188">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189" s="1">
+        <v>43975</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" t="s">
+        <v>4</v>
+      </c>
+      <c r="B190" s="1">
+        <v>43976</v>
+      </c>
+      <c r="C190">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" s="1">
+        <v>43977</v>
+      </c>
+      <c r="C191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" t="s">
+        <v>4</v>
+      </c>
+      <c r="B192" s="1">
+        <v>43978</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" t="s">
+        <v>4</v>
+      </c>
+      <c r="B193" s="1">
+        <v>43979</v>
+      </c>
+      <c r="C193">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194" s="1">
         <v>43884</v>
       </c>
-      <c r="C188">
+      <c r="C194">
         <v>2.5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B189" s="1">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B195" s="1">
         <v>43885</v>
-      </c>
-      <c r="C189">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B190" s="1">
-        <v>43886</v>
-      </c>
-      <c r="C190">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B191" s="1">
-        <v>43887</v>
-      </c>
-      <c r="C191">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B192" s="1">
-        <v>43888</v>
-      </c>
-      <c r="C192">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B193" s="1">
-        <v>43889</v>
-      </c>
-      <c r="C193">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B194" s="1">
-        <v>43890</v>
-      </c>
-      <c r="C194">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B195" s="1">
-        <v>43891</v>
       </c>
       <c r="C195">
         <v>2.6</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>5</v>
       </c>
       <c r="B196" s="1">
-        <v>43892</v>
+        <v>43886</v>
       </c>
       <c r="C196">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>5</v>
       </c>
       <c r="B197" s="1">
-        <v>43893</v>
+        <v>43887</v>
       </c>
       <c r="C197">
         <v>0.4</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>5</v>
       </c>
       <c r="B198" s="1">
-        <v>43894</v>
+        <v>43888</v>
       </c>
       <c r="C198">
         <v>0.4</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>5</v>
       </c>
       <c r="B199" s="1">
-        <v>43895</v>
+        <v>43889</v>
       </c>
       <c r="C199">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" s="1">
+        <v>43890</v>
+      </c>
+      <c r="C200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" s="1">
+        <v>43891</v>
+      </c>
+      <c r="C201">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" s="1">
+        <v>43892</v>
+      </c>
+      <c r="C202">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" s="1">
+        <v>43893</v>
+      </c>
+      <c r="C203">
         <v>0.4</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B200" s="1">
-        <v>43896</v>
-      </c>
-      <c r="C200">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B201" s="1">
-        <v>43897</v>
-      </c>
-      <c r="C201">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B202" s="1">
-        <v>43898</v>
-      </c>
-      <c r="C202">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B203" s="1">
-        <v>43899</v>
-      </c>
-      <c r="C203">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>5</v>
       </c>
       <c r="B204" s="1">
-        <v>43900</v>
+        <v>43894</v>
       </c>
       <c r="C204">
         <v>0.4</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>5</v>
       </c>
       <c r="B205" s="1">
-        <v>43901</v>
+        <v>43895</v>
       </c>
       <c r="C205">
         <v>0.4</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>5</v>
       </c>
       <c r="B206" s="1">
+        <v>43896</v>
+      </c>
+      <c r="C206">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" s="1">
+        <v>43897</v>
+      </c>
+      <c r="C207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" s="1">
+        <v>43898</v>
+      </c>
+      <c r="C208">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" s="1">
+        <v>43899</v>
+      </c>
+      <c r="C209">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" s="1">
+        <v>43900</v>
+      </c>
+      <c r="C210">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" s="1">
+        <v>43901</v>
+      </c>
+      <c r="C211">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" s="1">
         <v>43902</v>
       </c>
-      <c r="C206">
+      <c r="C212">
         <v>0.5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B207" s="1">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B213" s="1">
         <v>43903</v>
       </c>
-      <c r="C207">
+      <c r="C213">
         <v>0.5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B208" s="1">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" s="1">
         <v>43904</v>
       </c>
-      <c r="C208">
+      <c r="C214">
         <v>2.1</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B209" s="1">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215" s="1">
         <v>43905</v>
       </c>
-      <c r="C209">
+      <c r="C215">
         <v>2.6</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B210" s="1">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B216" s="1">
         <v>43906</v>
       </c>
-      <c r="C210">
+      <c r="C216">
         <v>0.7</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B211" s="1">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B217" s="1">
         <v>43907</v>
       </c>
-      <c r="C211">
+      <c r="C217">
         <v>0.6</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B212" s="1">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A218" t="s">
+        <v>5</v>
+      </c>
+      <c r="B218" s="1">
         <v>43908</v>
       </c>
-      <c r="C212">
+      <c r="C218">
         <v>0.8</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B213" s="1">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A219" t="s">
+        <v>5</v>
+      </c>
+      <c r="B219" s="1">
         <v>43909</v>
       </c>
-      <c r="C213">
+      <c r="C219">
         <v>0.9</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B214" s="1">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A220" t="s">
+        <v>5</v>
+      </c>
+      <c r="B220" s="1">
         <v>43910</v>
       </c>
-      <c r="C214">
+      <c r="C220">
         <v>0.9</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B215" s="1">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A221" t="s">
+        <v>5</v>
+      </c>
+      <c r="B221" s="1">
         <v>43911</v>
       </c>
-      <c r="C215">
+      <c r="C221">
         <v>2.4</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B216" s="1">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A222" t="s">
+        <v>5</v>
+      </c>
+      <c r="B222" s="1">
         <v>43912</v>
       </c>
-      <c r="C216">
+      <c r="C222">
         <v>2.8</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B217" s="1">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A223" t="s">
+        <v>5</v>
+      </c>
+      <c r="B223" s="1">
         <v>43913</v>
       </c>
-      <c r="C217">
+      <c r="C223">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
-        <v>5</v>
-      </c>
-      <c r="B218" s="1">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A224" t="s">
+        <v>5</v>
+      </c>
+      <c r="B224" s="1">
         <v>43914</v>
       </c>
-      <c r="C218">
+      <c r="C224">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>5</v>
-      </c>
-      <c r="B219" s="1">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A225" t="s">
+        <v>5</v>
+      </c>
+      <c r="B225" s="1">
         <v>43915</v>
       </c>
-      <c r="C219">
+      <c r="C225">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>5</v>
-      </c>
-      <c r="B220" s="1">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A226" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" s="1">
         <v>43916</v>
       </c>
-      <c r="C220">
+      <c r="C226">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>5</v>
-      </c>
-      <c r="B221" s="1">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A227" t="s">
+        <v>5</v>
+      </c>
+      <c r="B227" s="1">
         <v>43917</v>
       </c>
-      <c r="C221">
+      <c r="C227">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>5</v>
-      </c>
-      <c r="B222" s="1">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A228" t="s">
+        <v>5</v>
+      </c>
+      <c r="B228" s="1">
         <v>43918</v>
       </c>
-      <c r="C222">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
-        <v>5</v>
-      </c>
-      <c r="B223" s="1">
+      <c r="C228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A229" t="s">
+        <v>5</v>
+      </c>
+      <c r="B229" s="1">
         <v>43919</v>
       </c>
-      <c r="C223">
+      <c r="C229">
         <v>3.6</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
-        <v>5</v>
-      </c>
-      <c r="B224" s="1">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A230" t="s">
+        <v>5</v>
+      </c>
+      <c r="B230" s="1">
         <v>43920</v>
       </c>
-      <c r="C224">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>5</v>
-      </c>
-      <c r="B225" s="1">
+      <c r="C230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A231" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231" s="1">
         <v>43921</v>
       </c>
-      <c r="C225">
+      <c r="C231">
         <v>3.2</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>5</v>
-      </c>
-      <c r="B226" s="1">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A232" t="s">
+        <v>5</v>
+      </c>
+      <c r="B232" s="1">
         <v>43922</v>
       </c>
-      <c r="C226">
+      <c r="C232">
         <v>3.4</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
-        <v>5</v>
-      </c>
-      <c r="B227" s="1">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A233" t="s">
+        <v>5</v>
+      </c>
+      <c r="B233" s="1">
         <v>43923</v>
       </c>
-      <c r="C227">
+      <c r="C233">
         <v>3.5</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>5</v>
-      </c>
-      <c r="B228" s="1">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A234" t="s">
+        <v>5</v>
+      </c>
+      <c r="B234" s="1">
         <v>43924</v>
       </c>
-      <c r="C228">
+      <c r="C234">
         <v>3.4</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
-        <v>5</v>
-      </c>
-      <c r="B229" s="1">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A235" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235" s="1">
         <v>43925</v>
       </c>
-      <c r="C229">
+      <c r="C235">
         <v>3.8</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
-        <v>5</v>
-      </c>
-      <c r="B230" s="1">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A236" t="s">
+        <v>5</v>
+      </c>
+      <c r="B236" s="1">
         <v>43926</v>
       </c>
-      <c r="C230">
+      <c r="C236">
         <v>3.9</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
-        <v>5</v>
-      </c>
-      <c r="B231" s="1">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A237" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237" s="1">
         <v>43927</v>
       </c>
-      <c r="C231">
+      <c r="C237">
         <v>2.9</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>5</v>
-      </c>
-      <c r="B232" s="1">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A238" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" s="1">
         <v>43928</v>
       </c>
-      <c r="C232">
+      <c r="C238">
         <v>2.8</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
-        <v>5</v>
-      </c>
-      <c r="B233" s="1">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A239" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" s="1">
         <v>43929</v>
       </c>
-      <c r="C233">
+      <c r="C239">
         <v>2.8</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
-        <v>5</v>
-      </c>
-      <c r="B234" s="1">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A240" t="s">
+        <v>5</v>
+      </c>
+      <c r="B240" s="1">
         <v>43930</v>
       </c>
-      <c r="C234">
+      <c r="C240">
         <v>2.8</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>5</v>
-      </c>
-      <c r="B235" s="1">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A241" t="s">
+        <v>5</v>
+      </c>
+      <c r="B241" s="1">
         <v>43931</v>
-      </c>
-      <c r="C235">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
-        <v>5</v>
-      </c>
-      <c r="B236" s="1">
-        <v>43932</v>
-      </c>
-      <c r="C236">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
-        <v>5</v>
-      </c>
-      <c r="B237" s="1">
-        <v>43933</v>
-      </c>
-      <c r="C237">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
-        <v>5</v>
-      </c>
-      <c r="B238" s="1">
-        <v>43934</v>
-      </c>
-      <c r="C238">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
-        <v>5</v>
-      </c>
-      <c r="B239" s="1">
-        <v>43935</v>
-      </c>
-      <c r="C239">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
-        <v>5</v>
-      </c>
-      <c r="B240" s="1">
-        <v>43936</v>
-      </c>
-      <c r="C240">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>5</v>
-      </c>
-      <c r="B241" s="1">
-        <v>43937</v>
       </c>
       <c r="C241">
         <v>2.7</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>5</v>
       </c>
       <c r="B242" s="1">
-        <v>43938</v>
+        <v>43932</v>
       </c>
       <c r="C242">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A243" t="s">
+        <v>5</v>
+      </c>
+      <c r="B243" s="1">
+        <v>43933</v>
+      </c>
+      <c r="C243">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A244" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C244">
         <v>2.7</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>5</v>
-      </c>
-      <c r="B243" s="1">
-        <v>43939</v>
-      </c>
-      <c r="C243">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>5</v>
-      </c>
-      <c r="B244" s="1">
-        <v>43940</v>
-      </c>
-      <c r="C244">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>5</v>
       </c>
       <c r="B245" s="1">
-        <v>43941</v>
+        <v>43935</v>
       </c>
       <c r="C245">
         <v>2.7</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>5</v>
       </c>
       <c r="B246" s="1">
+        <v>43936</v>
+      </c>
+      <c r="C246">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A247" t="s">
+        <v>5</v>
+      </c>
+      <c r="B247" s="1">
+        <v>43937</v>
+      </c>
+      <c r="C247">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A248" t="s">
+        <v>5</v>
+      </c>
+      <c r="B248" s="1">
+        <v>43938</v>
+      </c>
+      <c r="C248">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A249" t="s">
+        <v>5</v>
+      </c>
+      <c r="B249" s="1">
+        <v>43939</v>
+      </c>
+      <c r="C249">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A250" t="s">
+        <v>5</v>
+      </c>
+      <c r="B250" s="1">
+        <v>43940</v>
+      </c>
+      <c r="C250">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A251" t="s">
+        <v>5</v>
+      </c>
+      <c r="B251" s="1">
+        <v>43941</v>
+      </c>
+      <c r="C251">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A252" t="s">
+        <v>5</v>
+      </c>
+      <c r="B252" s="1">
         <v>43942</v>
       </c>
-      <c r="C246">
+      <c r="C252">
         <v>2.6</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>5</v>
-      </c>
-      <c r="B247" s="1">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A253" t="s">
+        <v>5</v>
+      </c>
+      <c r="B253" s="1">
         <v>43943</v>
       </c>
-      <c r="C247">
+      <c r="C253">
         <v>2.6</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
-        <v>5</v>
-      </c>
-      <c r="B248" s="1">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A254" t="s">
+        <v>5</v>
+      </c>
+      <c r="B254" s="1">
         <v>43944</v>
       </c>
-      <c r="C248">
+      <c r="C254">
         <v>2.5</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>5</v>
-      </c>
-      <c r="B249" s="1">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A255" t="s">
+        <v>5</v>
+      </c>
+      <c r="B255" s="1">
         <v>43945</v>
       </c>
-      <c r="C249">
+      <c r="C255">
         <v>2.6</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>5</v>
-      </c>
-      <c r="B250" s="1">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A256" t="s">
+        <v>5</v>
+      </c>
+      <c r="B256" s="1">
         <v>43946</v>
       </c>
-      <c r="C250">
+      <c r="C256">
         <v>3.2</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>5</v>
-      </c>
-      <c r="B251" s="1">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A257" t="s">
+        <v>5</v>
+      </c>
+      <c r="B257" s="1">
         <v>43947</v>
       </c>
-      <c r="C251">
+      <c r="C257">
         <v>3.6</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
-        <v>5</v>
-      </c>
-      <c r="B252" s="1">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A258" t="s">
+        <v>5</v>
+      </c>
+      <c r="B258" s="1">
         <v>43948</v>
       </c>
-      <c r="C252">
+      <c r="C258">
         <v>2.5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>5</v>
-      </c>
-      <c r="B253" s="1">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A259" t="s">
+        <v>5</v>
+      </c>
+      <c r="B259" s="1">
         <v>43949</v>
       </c>
-      <c r="C253">
+      <c r="C259">
         <v>2.4</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>5</v>
-      </c>
-      <c r="B254" s="1">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A260" t="s">
+        <v>5</v>
+      </c>
+      <c r="B260" s="1">
         <v>43950</v>
       </c>
-      <c r="C254">
+      <c r="C260">
         <v>2.4</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>5</v>
-      </c>
-      <c r="B255" s="1">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A261" t="s">
+        <v>5</v>
+      </c>
+      <c r="B261" s="1">
         <v>43951</v>
       </c>
-      <c r="C255">
+      <c r="C261">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>5</v>
-      </c>
-      <c r="B256" s="1">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A262" t="s">
+        <v>5</v>
+      </c>
+      <c r="B262" s="1">
         <v>43952</v>
       </c>
-      <c r="C256">
+      <c r="C262">
         <v>3.1</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>5</v>
-      </c>
-      <c r="B257" s="1">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A263" t="s">
+        <v>5</v>
+      </c>
+      <c r="B263" s="1">
         <v>43953</v>
       </c>
-      <c r="C257">
+      <c r="C263">
         <v>3.1</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>5</v>
-      </c>
-      <c r="B258" s="1">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A264" t="s">
+        <v>5</v>
+      </c>
+      <c r="B264" s="1">
         <v>43954</v>
       </c>
-      <c r="C258">
+      <c r="C264">
         <v>3.4</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>5</v>
-      </c>
-      <c r="B259" s="1">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A265" t="s">
+        <v>5</v>
+      </c>
+      <c r="B265" s="1">
         <v>43955</v>
       </c>
-      <c r="C259">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>5</v>
-      </c>
-      <c r="B260" s="1">
+      <c r="C265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A266" t="s">
+        <v>5</v>
+      </c>
+      <c r="B266" s="1">
         <v>43956</v>
-      </c>
-      <c r="C260">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>5</v>
-      </c>
-      <c r="B261" s="1">
-        <v>43957</v>
-      </c>
-      <c r="C261">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>5</v>
-      </c>
-      <c r="B262" s="1">
-        <v>43958</v>
-      </c>
-      <c r="C262">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>5</v>
-      </c>
-      <c r="B263" s="1">
-        <v>43959</v>
-      </c>
-      <c r="C263">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>5</v>
-      </c>
-      <c r="B264" s="1">
-        <v>43960</v>
-      </c>
-      <c r="C264">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>5</v>
-      </c>
-      <c r="B265" s="1">
-        <v>43961</v>
-      </c>
-      <c r="C265">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>5</v>
-      </c>
-      <c r="B266" s="1">
-        <v>43962</v>
       </c>
       <c r="C266">
         <v>2.9</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>5</v>
       </c>
       <c r="B267" s="1">
-        <v>43963</v>
+        <v>43957</v>
       </c>
       <c r="C267">
         <v>2.1</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>5</v>
       </c>
       <c r="B268" s="1">
+        <v>43958</v>
+      </c>
+      <c r="C268">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A269" t="s">
+        <v>5</v>
+      </c>
+      <c r="B269" s="1">
+        <v>43959</v>
+      </c>
+      <c r="C269">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A270" t="s">
+        <v>5</v>
+      </c>
+      <c r="B270" s="1">
+        <v>43960</v>
+      </c>
+      <c r="C270">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A271" t="s">
+        <v>5</v>
+      </c>
+      <c r="B271" s="1">
+        <v>43961</v>
+      </c>
+      <c r="C271">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A272" t="s">
+        <v>5</v>
+      </c>
+      <c r="B272" s="1">
+        <v>43962</v>
+      </c>
+      <c r="C272">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A273" t="s">
+        <v>5</v>
+      </c>
+      <c r="B273" s="1">
+        <v>43963</v>
+      </c>
+      <c r="C273">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A274" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274" s="1">
         <v>43964</v>
       </c>
-      <c r="C268">
+      <c r="C274">
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
-        <v>5</v>
-      </c>
-      <c r="B269" s="1">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A275" t="s">
+        <v>5</v>
+      </c>
+      <c r="B275" s="1">
         <v>43965</v>
       </c>
-      <c r="C269">
+      <c r="C275">
         <v>2.1</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
-        <v>5</v>
-      </c>
-      <c r="B270" s="1">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A276" t="s">
+        <v>5</v>
+      </c>
+      <c r="B276" s="1">
         <v>43966</v>
-      </c>
-      <c r="C270">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
-        <v>5</v>
-      </c>
-      <c r="B271" s="1">
-        <v>43967</v>
-      </c>
-      <c r="C271">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
-        <v>5</v>
-      </c>
-      <c r="B272" s="1">
-        <v>43968</v>
-      </c>
-      <c r="C272">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
-        <v>5</v>
-      </c>
-      <c r="B273" s="1">
-        <v>43969</v>
-      </c>
-      <c r="C273">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
-        <v>5</v>
-      </c>
-      <c r="B274" s="1">
-        <v>43970</v>
-      </c>
-      <c r="C274">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>5</v>
-      </c>
-      <c r="B275" s="1">
-        <v>43971</v>
-      </c>
-      <c r="C275">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>5</v>
-      </c>
-      <c r="B276" s="1">
-        <v>43972</v>
       </c>
       <c r="C276">
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>5</v>
       </c>
       <c r="B277" s="1">
+        <v>43967</v>
+      </c>
+      <c r="C277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A278" t="s">
+        <v>5</v>
+      </c>
+      <c r="B278" s="1">
+        <v>43968</v>
+      </c>
+      <c r="C278">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A279" t="s">
+        <v>5</v>
+      </c>
+      <c r="B279" s="1">
+        <v>43969</v>
+      </c>
+      <c r="C279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A280" t="s">
+        <v>5</v>
+      </c>
+      <c r="B280" s="1">
+        <v>43970</v>
+      </c>
+      <c r="C280">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A281" t="s">
+        <v>5</v>
+      </c>
+      <c r="B281" s="1">
+        <v>43971</v>
+      </c>
+      <c r="C281">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A282" t="s">
+        <v>5</v>
+      </c>
+      <c r="B282" s="1">
+        <v>43972</v>
+      </c>
+      <c r="C282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A283" t="s">
+        <v>5</v>
+      </c>
+      <c r="B283" s="1">
         <v>43973</v>
       </c>
-      <c r="C277">
+      <c r="C283">
         <v>1.8</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>5</v>
-      </c>
-      <c r="B278" s="1">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A284" t="s">
+        <v>5</v>
+      </c>
+      <c r="B284" s="1">
         <v>43974</v>
       </c>
-      <c r="C278">
+      <c r="C284">
         <v>2.6</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>5</v>
-      </c>
-      <c r="B279" s="1">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A285" t="s">
+        <v>5</v>
+      </c>
+      <c r="B285" s="1">
         <v>43975</v>
       </c>
-      <c r="C279">
+      <c r="C285">
         <v>2.9</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
-        <v>5</v>
-      </c>
-      <c r="B280" s="1">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A286" t="s">
+        <v>5</v>
+      </c>
+      <c r="B286" s="1">
         <v>43976</v>
       </c>
-      <c r="C280">
+      <c r="C286">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A287" t="s">
+        <v>5</v>
+      </c>
+      <c r="B287" s="1">
+        <v>43977</v>
+      </c>
+      <c r="C287">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A288" t="s">
+        <v>5</v>
+      </c>
+      <c r="B288" s="1">
+        <v>43978</v>
+      </c>
+      <c r="C288">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A289" t="s">
+        <v>5</v>
+      </c>
+      <c r="B289" s="1">
+        <v>43979</v>
+      </c>
+      <c r="C289">
         <v>1.6</v>
       </c>
     </row>
